--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H2">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.051811</v>
+        <v>0.3659943333333333</v>
       </c>
       <c r="N2">
-        <v>0.155433</v>
+        <v>1.097983</v>
       </c>
       <c r="O2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="P2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
       <c r="Q2">
-        <v>0.079796970705</v>
+        <v>0.1252879121753333</v>
       </c>
       <c r="R2">
-        <v>0.718172736345</v>
+        <v>1.127591209578</v>
       </c>
       <c r="S2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149161</v>
       </c>
       <c r="T2">
-        <v>0.001029435082588367</v>
+        <v>0.006726051721149162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H3">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.273934</v>
       </c>
       <c r="O3">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="P3">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="Q3">
-        <v>0.14063360659</v>
+        <v>0.03125787824933333</v>
       </c>
       <c r="R3">
-        <v>1.26570245931</v>
+        <v>0.281320904244</v>
       </c>
       <c r="S3">
-        <v>0.001814268977075408</v>
+        <v>0.001678071748088335</v>
       </c>
       <c r="T3">
-        <v>0.001814268977075407</v>
+        <v>0.001678071748088335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H4">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.144057</v>
+        <v>53.897087</v>
       </c>
       <c r="N4">
-        <v>150.432171</v>
+        <v>161.691261</v>
       </c>
       <c r="O4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="P4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
       <c r="Q4">
-        <v>77.22962010883501</v>
+        <v>18.450158616014</v>
       </c>
       <c r="R4">
-        <v>695.066580979515</v>
+        <v>166.051427544126</v>
       </c>
       <c r="S4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135933</v>
       </c>
       <c r="T4">
-        <v>0.9963145173633166</v>
+        <v>0.9904923704135934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.540155</v>
+        <v>0.342322</v>
       </c>
       <c r="H5">
-        <v>4.620465</v>
+        <v>1.026966</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04236633333333333</v>
+        <v>0.06004666666666667</v>
       </c>
       <c r="N5">
-        <v>0.127099</v>
+        <v>0.18014</v>
       </c>
       <c r="O5">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="P5">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="Q5">
-        <v>0.06525072011500001</v>
+        <v>0.02055529502666667</v>
       </c>
       <c r="R5">
-        <v>0.5872564810349999</v>
+        <v>0.18499765524</v>
       </c>
       <c r="S5">
-        <v>0.0008417785770196733</v>
+        <v>0.001103506117169219</v>
       </c>
       <c r="T5">
-        <v>0.0008417785770196732</v>
+        <v>0.001103506117169219</v>
       </c>
     </row>
   </sheetData>
